--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang 2022 full.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang 2022 full.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Size structure" sheetId="4" r:id="rId3"/>
     <sheet name="Outline" sheetId="5" r:id="rId4"/>
     <sheet name="Лист1" sheetId="6" r:id="rId5"/>
-    <sheet name="767" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="Coordinats_South" sheetId="7" r:id="rId6"/>
+    <sheet name="767" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>Crang19</t>
   </si>
@@ -269,6 +270,42 @@
   </si>
   <si>
     <t>Встречаемость</t>
+  </si>
+  <si>
+    <t>Sampe</t>
+  </si>
+  <si>
+    <t>Crang 1</t>
+  </si>
+  <si>
+    <t>Crang 2</t>
+  </si>
+  <si>
+    <t>Crang 3</t>
+  </si>
+  <si>
+    <t>Crang 4</t>
+  </si>
+  <si>
+    <t>Crang 5</t>
+  </si>
+  <si>
+    <t>Crang 6</t>
+  </si>
+  <si>
+    <t>Crang 7</t>
+  </si>
+  <si>
+    <t>Crang 8</t>
+  </si>
+  <si>
+    <t>Crang 9</t>
+  </si>
+  <si>
+    <t>Crang 10</t>
+  </si>
+  <si>
+    <t>Crang 11</t>
   </si>
 </sst>
 </file>
@@ -403,7 +440,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -743,11 +779,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196560640"/>
-        <c:axId val="196558288"/>
+        <c:axId val="230925384"/>
+        <c:axId val="230925776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196560640"/>
+        <c:axId val="230925384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,12 +840,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196558288"/>
+        <c:crossAx val="230925776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196558288"/>
+        <c:axId val="230925776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +902,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196560640"/>
+        <c:crossAx val="230925384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -930,7 +966,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1295,11 +1330,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196558680"/>
-        <c:axId val="196559072"/>
+        <c:axId val="232134720"/>
+        <c:axId val="232132760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196558680"/>
+        <c:axId val="232134720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,12 +1391,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196559072"/>
+        <c:crossAx val="232132760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196559072"/>
+        <c:axId val="232132760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1453,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196558680"/>
+        <c:crossAx val="232134720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1482,7 +1517,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1709,11 +1743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196555936"/>
-        <c:axId val="196553584"/>
+        <c:axId val="232131584"/>
+        <c:axId val="232132368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196555936"/>
+        <c:axId val="232131584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,12 +1804,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196553584"/>
+        <c:crossAx val="232132368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196553584"/>
+        <c:axId val="232132368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,7 +1866,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196555936"/>
+        <c:crossAx val="232131584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7319,7 +7353,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8309,7 +8343,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8458,6 +8492,153 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>67.504999999999995</v>
+      </c>
+      <c r="B2" s="1">
+        <v>34.911000000000001</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>67.498999999999995</v>
+      </c>
+      <c r="B3" s="1">
+        <v>34.383000000000003</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>67.498000000000005</v>
+      </c>
+      <c r="B4" s="1">
+        <v>34.344000000000001</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>67.497</v>
+      </c>
+      <c r="B5" s="1">
+        <v>34.311999999999998</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>67.506</v>
+      </c>
+      <c r="B6" s="1">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="B7" s="1">
+        <v>34.386000000000003</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>67.504999999999995</v>
+      </c>
+      <c r="B8" s="1">
+        <v>34.351999999999997</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>67.399000000000001</v>
+      </c>
+      <c r="B9" s="1">
+        <v>34.32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>67.491</v>
+      </c>
+      <c r="B10" s="1">
+        <v>34.281999999999996</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>67.472999999999999</v>
+      </c>
+      <c r="B11" s="1">
+        <v>34.259</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>67.441000000000003</v>
+      </c>
+      <c r="B12" s="1">
+        <v>34.25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang 2022 full.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang 2022 full.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +408,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -440,6 +441,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -480,7 +482,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Coordinates!$C$1</c:f>
+              <c:f>Coordinats_South!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -513,259 +515,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Coordinates!$B$2:$B$44</c:f>
+              <c:f>Coordinates!$C$42:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>67.008316666666673</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67.008183333333335</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.008150000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67.007966666666661</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.008016666666663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67.007999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67.00781666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67.0077</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.007566666666662</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67.007433333333339</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.007300000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67.007050000000007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>67.006783333333331</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>67.006683333333328</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>67.00618333333334</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>67.008300000000006</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>67.008399999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67.008183333333335</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>67.007866666666672</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>67.007750000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>67.007716666666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>67.008200000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>67.008383333333327</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>67.008383333333327</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>67.008266666666671</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>67.008183333333335</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>67.008166666666668</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>67.008116666666666</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>67.008049999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.007916666666674</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>67.007783333333336</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67.007649999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>67.007450000000006</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67.00718333333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>67.006983333333338</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>67.006816666666666</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>67.006533333333337</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>67.00633333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>67.00621666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>67.005949999999999</c:v>
-                </c:pt>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Coordinates!$C$2:$C$44</c:f>
+              <c:f>Coordinates!$D$42:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>32.573450000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.573116666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.57288333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.57268333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.572150000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.571899999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.571683333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.571316666666668</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32.57118333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32.570933333333336</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32.57085</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32.570766666666664</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32.570816666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.570983333333331</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32.571716666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.573383333333332</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32.573816666666666</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.5745</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32.574633333333331</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32.574766666666669</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32.574766666666669</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>32.574466666666666</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.573749999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32.573599999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32.573283333333336</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32.573116666666664</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32.572916666666664</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32.57268333333333</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32.572233333333337</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32.573633333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32.571583333333336</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32.571199999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32.570099999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32.570700000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>32.570783333333331</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>32.570799999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>32.57105</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>32.571466666666666</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32.571449999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.571933333333334</c:v>
-                </c:pt>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -779,11 +541,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230925384"/>
-        <c:axId val="230925776"/>
+        <c:axId val="178490064"/>
+        <c:axId val="178490848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230925384"/>
+        <c:axId val="178490064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,12 +602,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230925776"/>
+        <c:crossAx val="178490848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230925776"/>
+        <c:axId val="178490848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +664,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230925384"/>
+        <c:crossAx val="178490064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1330,11 +1092,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="232134720"/>
-        <c:axId val="232132760"/>
+        <c:axId val="178495552"/>
+        <c:axId val="178494376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232134720"/>
+        <c:axId val="178495552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,12 +1153,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232132760"/>
+        <c:crossAx val="178494376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232132760"/>
+        <c:axId val="178494376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1215,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232134720"/>
+        <c:crossAx val="178495552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1743,11 +1505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="232131584"/>
-        <c:axId val="232132368"/>
+        <c:axId val="178495944"/>
+        <c:axId val="178490456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232131584"/>
+        <c:axId val="178495944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,12 +1566,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232132368"/>
+        <c:crossAx val="178490456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232132368"/>
+        <c:axId val="178490456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,7 +1628,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232131584"/>
+        <c:crossAx val="178495944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6042,766 +5804,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="14.54296875" style="4" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="1">
-        <v>67.008316666666673</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>32.573450000000001</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8">
-        <f>D2/1.9</f>
-        <v>1.5789473684210527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>67.504999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="1">
-        <v>67.008183333333335</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>32.573116666666664</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E41" si="0">D3/1.9</f>
-        <v>1.5789473684210527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>67.498999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B4" s="1">
-        <v>67.008150000000001</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>32.57288333333333</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0526315789473684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>67.498000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B5" s="1">
-        <v>67.007966666666661</v>
+        <v>34.311999999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>32.57268333333333</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>67.497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B6" s="1">
-        <v>67.008016666666663</v>
+        <v>34.270000000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>32.572150000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>67.506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B7" s="1">
-        <v>67.007999999999996</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>32.571899999999999</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>67.510000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B8" s="1">
-        <v>67.00781666666667</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>32.571683333333333</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>1.5789473684210527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>67.504999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B9" s="1">
-        <v>67.0077</v>
+        <v>34.32</v>
       </c>
       <c r="C9" s="1">
-        <v>32.571316666666668</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>67.399000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B10" s="1">
-        <v>67.007566666666662</v>
+        <v>34.281999999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>32.57118333333333</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>67.491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B11" s="1">
-        <v>67.007433333333339</v>
+        <v>34.259</v>
       </c>
       <c r="C11" s="1">
-        <v>32.570933333333336</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
+        <v>67.472999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B12" s="1">
-        <v>67.007300000000001</v>
+        <v>34.25</v>
       </c>
       <c r="C12" s="1">
-        <v>32.57085</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>67.007050000000007</v>
-      </c>
-      <c r="C13" s="1">
-        <v>32.570766666666664</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="1">
-        <v>67.006783333333331</v>
-      </c>
-      <c r="C14" s="1">
-        <v>32.570816666666666</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1">
-        <v>67.006683333333328</v>
-      </c>
-      <c r="C15" s="1">
-        <v>32.570983333333331</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>67.00618333333334</v>
-      </c>
-      <c r="C16" s="1">
-        <v>32.571716666666667</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
-        <v>67.008300000000006</v>
-      </c>
-      <c r="C17" s="1">
-        <v>32.573383333333332</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0526315789473684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>67.008399999999995</v>
-      </c>
-      <c r="C18" s="1">
-        <v>32.573816666666666</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0526315789473684</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>67.008183333333335</v>
-      </c>
-      <c r="C19" s="1">
-        <v>32.5745</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>67.007866666666672</v>
-      </c>
-      <c r="C20" s="1">
-        <v>32.574633333333331</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1">
-        <v>67.007750000000001</v>
-      </c>
-      <c r="C21" s="1">
-        <v>32.574766666666669</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1">
-        <v>67.007716666666667</v>
-      </c>
-      <c r="C22" s="1">
-        <v>32.574766666666669</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0526315789473684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="1">
-        <v>67.008200000000002</v>
-      </c>
-      <c r="C23" s="1">
-        <v>32.574466666666666</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1">
-        <v>67.008383333333327</v>
-      </c>
-      <c r="C24" s="1">
-        <v>32.573749999999997</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1">
-        <v>67.008383333333327</v>
-      </c>
-      <c r="C25" s="1">
-        <v>32.573599999999999</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1">
-        <v>67.008266666666671</v>
-      </c>
-      <c r="C26" s="1">
-        <v>32.573283333333336</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1">
-        <v>67.008183333333335</v>
-      </c>
-      <c r="C27" s="1">
-        <v>32.573116666666664</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0526315789473684</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1">
-        <v>67.008166666666668</v>
-      </c>
-      <c r="C28" s="1">
-        <v>32.572916666666664</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1">
-        <v>67.008116666666666</v>
-      </c>
-      <c r="C29" s="1">
-        <v>32.57268333333333</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="1">
-        <v>67.008049999999997</v>
-      </c>
-      <c r="C30" s="1">
-        <v>32.572233333333337</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1">
-        <v>67.007916666666674</v>
-      </c>
-      <c r="C31" s="1">
-        <v>32.573633333333333</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1">
-        <v>67.007783333333336</v>
-      </c>
-      <c r="C32" s="1">
-        <v>32.571583333333336</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0526315789473684</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="1">
-        <v>67.007649999999998</v>
-      </c>
-      <c r="C33" s="1">
-        <v>32.571199999999997</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="1">
-        <v>67.007450000000006</v>
-      </c>
-      <c r="C34" s="1">
-        <v>32.570099999999996</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="1">
-        <v>67.00718333333333</v>
-      </c>
-      <c r="C35" s="1">
-        <v>32.570700000000002</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1">
-        <v>67.006983333333338</v>
-      </c>
-      <c r="C36" s="1">
-        <v>32.570783333333331</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1">
-        <v>67.006816666666666</v>
-      </c>
-      <c r="C37" s="1">
-        <v>32.570799999999998</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1">
-        <v>67.006533333333337</v>
-      </c>
-      <c r="C38" s="1">
-        <v>32.57105</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1">
-        <v>67.00633333333333</v>
-      </c>
-      <c r="C39" s="1">
-        <v>32.571466666666666</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1">
-        <v>67.00621666666666</v>
-      </c>
-      <c r="C40" s="1">
-        <v>32.571449999999999</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="1">
-        <v>67.005949999999999</v>
-      </c>
-      <c r="C41" s="1">
-        <v>32.571933333333334</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E43" s="4">
-        <f>AVERAGE(E2:E42)</f>
-        <v>0.47368421052631593</v>
-      </c>
+        <v>67.441000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G43">
         <f>3/1.9</f>
         <v>1.5789473684210527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E44" s="4">
-        <f>STDEV(E2:E41)</f>
-        <v>0.48852155883395476</v>
       </c>
     </row>
   </sheetData>
@@ -8493,144 +7639,762 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="14.54296875" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>67.504999999999995</v>
+      <c r="D1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>34.911000000000001</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>67.498999999999995</v>
+        <v>67.008316666666673</v>
+      </c>
+      <c r="C2" s="1">
+        <v>32.573450000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2/1.9</f>
+        <v>1.5789473684210527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>34.383000000000003</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>67.498000000000005</v>
+        <v>67.008183333333335</v>
+      </c>
+      <c r="C3" s="1">
+        <v>32.573116666666664</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3/1.9</f>
+        <v>1.5789473684210527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>34.344000000000001</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>67.497</v>
+        <v>67.008150000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>32.57288333333333</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <f>D4/1.9</f>
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="1">
-        <v>34.311999999999998</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>67.506</v>
+        <v>67.007966666666661</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32.57268333333333</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <f>D5/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B6" s="1">
-        <v>34.270000000000003</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>67.510000000000005</v>
+        <v>67.008016666666663</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32.572150000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <f>D6/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>34.386000000000003</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>67.504999999999995</v>
+        <v>67.007999999999996</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32.571899999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <f>D7/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>34.351999999999997</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>67.399000000000001</v>
+        <v>67.00781666666667</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32.571683333333333</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8">
+        <f>D8/1.9</f>
+        <v>1.5789473684210527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>34.32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>67.491</v>
+        <v>67.0077</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32.571316666666668</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f>D9/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="1">
-        <v>34.281999999999996</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>67.472999999999999</v>
+        <v>67.007566666666662</v>
+      </c>
+      <c r="C10" s="1">
+        <v>32.57118333333333</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <f>D10/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="1">
-        <v>34.259</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>67.441000000000003</v>
+        <v>67.007433333333339</v>
+      </c>
+      <c r="C11" s="1">
+        <v>32.570933333333336</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <f>D11/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="1">
-        <v>34.25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>67.007300000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>32.57085</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <f>D12/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>67.007050000000007</v>
+      </c>
+      <c r="C13" s="1">
+        <v>32.570766666666664</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <f>D13/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1">
+        <v>67.006783333333331</v>
+      </c>
+      <c r="C14" s="1">
+        <v>32.570816666666666</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <f>D14/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1">
+        <v>67.006683333333328</v>
+      </c>
+      <c r="C15" s="1">
+        <v>32.570983333333331</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <f>D15/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>67.00618333333334</v>
+      </c>
+      <c r="C16" s="1">
+        <v>32.571716666666667</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <f>D16/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>67.008300000000006</v>
+      </c>
+      <c r="C17" s="1">
+        <v>32.573383333333332</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8">
+        <f>D17/1.9</f>
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>67.008399999999995</v>
+      </c>
+      <c r="C18" s="1">
+        <v>32.573816666666666</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8">
+        <f>D18/1.9</f>
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>67.008183333333335</v>
+      </c>
+      <c r="C19" s="1">
+        <v>32.5745</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <f>D19/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>67.007866666666672</v>
+      </c>
+      <c r="C20" s="1">
+        <v>32.574633333333331</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <f>D20/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>67.007750000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>32.574766666666669</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <f>D21/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>67.007716666666667</v>
+      </c>
+      <c r="C22" s="1">
+        <v>32.574766666666669</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8">
+        <f>D22/1.9</f>
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1">
+        <v>67.008200000000002</v>
+      </c>
+      <c r="C23" s="1">
+        <v>32.574466666666666</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <f>D23/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1">
+        <v>67.008383333333327</v>
+      </c>
+      <c r="C24" s="1">
+        <v>32.573749999999997</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <f>D24/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1">
+        <v>67.008383333333327</v>
+      </c>
+      <c r="C25" s="1">
+        <v>32.573599999999999</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <f>D25/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1">
+        <v>67.008266666666671</v>
+      </c>
+      <c r="C26" s="1">
+        <v>32.573283333333336</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <f>D26/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>67.008183333333335</v>
+      </c>
+      <c r="C27" s="1">
+        <v>32.573116666666664</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <f>D27/1.9</f>
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1">
+        <v>67.008166666666668</v>
+      </c>
+      <c r="C28" s="1">
+        <v>32.572916666666664</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <f>D28/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>67.008116666666666</v>
+      </c>
+      <c r="C29" s="1">
+        <v>32.57268333333333</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <f>D29/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1">
+        <v>67.008049999999997</v>
+      </c>
+      <c r="C30" s="1">
+        <v>32.572233333333337</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <f>D30/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>67.007916666666674</v>
+      </c>
+      <c r="C31" s="1">
+        <v>32.573633333333333</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <f>D31/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>67.007783333333336</v>
+      </c>
+      <c r="C32" s="1">
+        <v>32.571583333333336</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="8">
+        <f>D32/1.9</f>
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1">
+        <v>67.007649999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>32.571199999999997</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <f>D33/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1">
+        <v>67.007450000000006</v>
+      </c>
+      <c r="C34" s="1">
+        <v>32.570099999999996</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <f>D34/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1">
+        <v>67.00718333333333</v>
+      </c>
+      <c r="C35" s="1">
+        <v>32.570700000000002</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <f>D35/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>67.006983333333338</v>
+      </c>
+      <c r="C36" s="1">
+        <v>32.570783333333331</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
+        <f>D36/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1">
+        <v>67.006816666666666</v>
+      </c>
+      <c r="C37" s="1">
+        <v>32.570799999999998</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <f>D37/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>67.006533333333337</v>
+      </c>
+      <c r="C38" s="1">
+        <v>32.57105</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <f>D38/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
+        <v>67.00633333333333</v>
+      </c>
+      <c r="C39" s="1">
+        <v>32.571466666666666</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8">
+        <f>D39/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>67.00621666666666</v>
+      </c>
+      <c r="C40" s="1">
+        <v>32.571449999999999</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <f>D40/1.9</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1">
+        <v>67.005949999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>32.571933333333334</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
+        <f>D41/1.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E43" s="4">
+        <f>AVERAGE(E2:E42)</f>
+        <v>0.47368421052631593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E44" s="4">
+        <f>STDEV(E2:E41)</f>
+        <v>0.48852155883395476</v>
       </c>
     </row>
   </sheetData>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang 2022 full.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang 2022 full.xlsx
@@ -480,17 +480,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Coordinats_South!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lon</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -515,19 +504,295 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Coordinates!$C$42:$C$44</c:f>
+              <c:f>Outline!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>32.578868999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.573613000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.572926000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.572493999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.571865000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.571238000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.570754999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.570191999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.569648999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.569279000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.569026999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.569094</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.569170999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.569223000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.569003000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.568922000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.568919999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.568846999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.569051000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.569353999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.569678000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.569737000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.570033000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.569938</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.569974000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.569960999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.569927999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.569997999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.569997000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.569997000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.569923000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.569926000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.569989999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.569968000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.569965000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.569910999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.569935000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.569965000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.570118999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.570124</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.570300000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32.570827999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.571153000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.571606000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.572310000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.573086000000004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Coordinates!$D$42:$D$44</c:f>
+              <c:f>Outline!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>67.007221000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.009069999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.009156000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.009214999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.009352000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.009400999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.009433999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.009461999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.009573000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.009687999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.009533000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.009322999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.009169</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.008887999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.008793999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.008622000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.008533</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.008317000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.008207999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.008082999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67.007921999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.007705000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.007446000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67.007284999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.007182</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67.007143999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67.007071999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.006966000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.006865000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.006808000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.006945999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67.006878999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67.006778999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67.006725000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.006936999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67.006803000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.006685000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.006626999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>67.006338</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.006096999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.005799999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67.005639000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>67.005488</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>67.005398</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.005325999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>67.005133000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -541,11 +806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178490064"/>
-        <c:axId val="178490848"/>
+        <c:axId val="206458200"/>
+        <c:axId val="206458592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178490064"/>
+        <c:axId val="206458200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,12 +867,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178490848"/>
+        <c:crossAx val="206458592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178490848"/>
+        <c:axId val="206458592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +929,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178490064"/>
+        <c:crossAx val="206458200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -728,557 +993,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Outline!$A$2:$A$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>32.578868999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.573613000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.572926000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.572493999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.571865000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.571238000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.570754999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.570191999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32.569648999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32.569279000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32.569026999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32.569094</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32.569170999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.569223000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32.569003000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.568922000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32.568919999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.568846999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32.569051000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32.569353999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32.569678000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>32.569737000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.570033000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32.569938</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32.569974000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32.569960999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32.569927999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32.569997999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32.569997000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32.569997000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32.569923000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32.569926000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32.569989999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32.569968000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>32.569965000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>32.569910999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>32.569935000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>32.569965000000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32.570118999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.570124</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>32.570300000000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>32.570827999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>32.571153000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>32.571606000000003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.572310000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>32.573086000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Outline!$B$2:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>67.007221000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67.009069999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.009156000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67.009214999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.009352000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67.009400999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67.009433999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67.009461999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.009573000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67.009687999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.009533000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67.009322999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>67.009169</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>67.008887999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>67.008793999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>67.008622000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>67.008533</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67.008317000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>67.008207999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>67.008082999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>67.007921999999994</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>67.007705000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>67.007446000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>67.007284999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>67.007182</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>67.007143999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>67.007071999999994</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>67.006966000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>67.006865000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.006808000000007</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>67.006945999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67.006878999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>67.006778999999995</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67.006725000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>67.006936999999994</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>67.006803000000005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>67.006685000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>67.006626999999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>67.006338</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>67.006096999999997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>67.005799999999994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>67.005639000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>67.005488</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>67.005398</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>67.005325999999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>67.005133000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="178495552"/>
-        <c:axId val="178494376"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="178495552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="178494376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="178494376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="178495552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1505,11 +1220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178495944"/>
-        <c:axId val="178490456"/>
+        <c:axId val="206451536"/>
+        <c:axId val="206453104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178495944"/>
+        <c:axId val="206451536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,12 +1281,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178490456"/>
+        <c:crossAx val="206453104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178490456"/>
+        <c:axId val="206453104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,7 +1343,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178495944"/>
+        <c:crossAx val="206451536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1718,46 +1433,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2829,558 +2504,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5804,10 +4928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5944,16 +5068,709 @@
         <v>67.441000000000003</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>32.578868999999997</v>
+      </c>
+      <c r="C13">
+        <v>67.007221000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>32.573613000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>67.009069999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>32.572926000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>67.009156000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>32.572493999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>67.009214999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>32.571865000000003</v>
+      </c>
+      <c r="C17" s="1">
+        <v>67.009352000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>32.571238000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>67.009400999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>32.570754999999998</v>
+      </c>
+      <c r="C19" s="1">
+        <v>67.009433999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>32.570191999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>67.009461999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>32.569648999999998</v>
+      </c>
+      <c r="C21" s="1">
+        <v>67.009573000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>32.569279000000002</v>
+      </c>
+      <c r="C22" s="1">
+        <v>67.009687999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <v>32.569026999999998</v>
+      </c>
+      <c r="C23" s="1">
+        <v>67.009533000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <v>32.569094</v>
+      </c>
+      <c r="C24" s="1">
+        <v>67.009322999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>32.569170999999997</v>
+      </c>
+      <c r="C25" s="1">
+        <v>67.009169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>32.569223000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>67.008887999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <v>32.569003000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>67.008793999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <v>32.568922000000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>67.008622000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>32.568919999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>67.008533</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>32.568846999999998</v>
+      </c>
+      <c r="C30" s="1">
+        <v>67.008317000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <v>32.569051000000002</v>
+      </c>
+      <c r="C31" s="1">
+        <v>67.008207999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <v>32.569353999999997</v>
+      </c>
+      <c r="C32" s="1">
+        <v>67.008082999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="1">
+        <v>32.569678000000003</v>
+      </c>
+      <c r="C33" s="1">
+        <v>67.007921999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <v>32.569737000000003</v>
+      </c>
+      <c r="C34" s="1">
+        <v>67.007705000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="1">
+        <v>32.570033000000002</v>
+      </c>
+      <c r="C35" s="1">
+        <v>67.007446000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="1">
+        <v>32.569938</v>
+      </c>
+      <c r="C36" s="1">
+        <v>67.007284999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="1">
+        <v>32.569974000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>67.007182</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="1">
+        <v>32.569960999999999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>67.007143999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <v>32.569927999999997</v>
+      </c>
+      <c r="C39" s="1">
+        <v>67.007071999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <v>32.569997999999998</v>
+      </c>
+      <c r="C40" s="1">
+        <v>67.006966000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="1">
+        <v>32.569997000000001</v>
+      </c>
+      <c r="C41" s="1">
+        <v>67.006865000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="1">
+        <v>32.569997000000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>67.006808000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="1">
+        <v>32.569923000000003</v>
+      </c>
+      <c r="C43" s="1">
+        <v>67.006945999999999</v>
+      </c>
       <c r="G43">
         <f>3/1.9</f>
         <v>1.5789473684210527</v>
       </c>
     </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="1">
+        <v>32.569926000000002</v>
+      </c>
+      <c r="C44" s="1">
+        <v>67.006878999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>32.569989999999997</v>
+      </c>
+      <c r="C45" s="1">
+        <v>67.006778999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>32.569968000000003</v>
+      </c>
+      <c r="C46" s="1">
+        <v>67.006725000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>32.569965000000003</v>
+      </c>
+      <c r="C47" s="1">
+        <v>67.006936999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <v>32.569910999999998</v>
+      </c>
+      <c r="C48" s="1">
+        <v>67.006803000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>32.569935000000001</v>
+      </c>
+      <c r="C49" s="1">
+        <v>67.006685000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <v>32.569965000000003</v>
+      </c>
+      <c r="C50" s="1">
+        <v>67.006626999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>32.570118999999998</v>
+      </c>
+      <c r="C51" s="1">
+        <v>67.006338</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
+        <v>32.570124</v>
+      </c>
+      <c r="C52" s="1">
+        <v>67.006096999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>32.570300000000003</v>
+      </c>
+      <c r="C53" s="1">
+        <v>67.005799999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
+        <v>32.570827999999999</v>
+      </c>
+      <c r="C54" s="1">
+        <v>67.005639000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="1">
+        <v>32.571153000000002</v>
+      </c>
+      <c r="C55" s="1">
+        <v>67.005488</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="1">
+        <v>32.571606000000003</v>
+      </c>
+      <c r="C56" s="1">
+        <v>67.005398</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="1">
+        <v>32.572310000000002</v>
+      </c>
+      <c r="C57" s="1">
+        <v>67.005325999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="1">
+        <v>32.573086000000004</v>
+      </c>
+      <c r="C58" s="1">
+        <v>67.005133000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="1">
+        <v>32.574626000000002</v>
+      </c>
+      <c r="C59" s="1">
+        <v>67.007643999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60" s="1">
+        <v>32.574575000000003</v>
+      </c>
+      <c r="C60" s="1">
+        <v>67.007934000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="1">
+        <v>32.574612000000002</v>
+      </c>
+      <c r="C61" s="1">
+        <v>67.008227000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62" s="1">
+        <v>32.574534999999997</v>
+      </c>
+      <c r="C62" s="1">
+        <v>67.008489999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63" s="1">
+        <v>32.574388999999996</v>
+      </c>
+      <c r="C63" s="1">
+        <v>67.008690000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" s="1">
+        <v>32.573687</v>
+      </c>
+      <c r="C64" s="1">
+        <v>67.008313000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" s="1">
+        <v>32.573351000000002</v>
+      </c>
+      <c r="C65" s="1">
+        <v>67.008138000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="1">
+        <v>32.573123000000002</v>
+      </c>
+      <c r="C66" s="1">
+        <v>67.008004999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67" s="1">
+        <v>32.57255</v>
+      </c>
+      <c r="C67" s="1">
+        <v>67.007812000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="1">
+        <v>32.571944000000002</v>
+      </c>
+      <c r="C68" s="1">
+        <v>67.007610999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69" s="1">
+        <v>32.571688000000002</v>
+      </c>
+      <c r="C69" s="1">
+        <v>67.007450000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="1">
+        <v>32.571516000000003</v>
+      </c>
+      <c r="C70" s="1">
+        <v>67.007315000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="1">
+        <v>32.571351</v>
+      </c>
+      <c r="C71" s="1">
+        <v>67.007215000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" s="1">
+        <v>32.571283000000001</v>
+      </c>
+      <c r="C72" s="1">
+        <v>67.007125000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73" s="1">
+        <v>32.571441999999998</v>
+      </c>
+      <c r="C73" s="1">
+        <v>67.006877000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="1">
+        <v>32.571313000000004</v>
+      </c>
+      <c r="C74" s="1">
+        <v>67.006652000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75" s="1">
+        <v>32.571710000000003</v>
+      </c>
+      <c r="C75" s="1">
+        <v>67.006473</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76" s="1">
+        <v>32.572294999999997</v>
+      </c>
+      <c r="C76" s="1">
+        <v>67.006307000000007</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77" s="1">
+        <v>32.573276999999997</v>
+      </c>
+      <c r="C77" s="1">
+        <v>67.006407999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="1">
+        <v>32.572840999999997</v>
+      </c>
+      <c r="C78" s="1">
+        <v>67.006020000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79" s="1">
+        <v>32.572999000000003</v>
+      </c>
+      <c r="C79" s="1">
+        <v>67.005842000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="1">
+        <v>32.573602000000001</v>
+      </c>
+      <c r="C80" s="1">
+        <v>67.005574999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="1">
+        <v>32.574444999999997</v>
+      </c>
+      <c r="C81" s="1">
+        <v>67.005455100000006</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>32.569695000000003</v>
+      </c>
+      <c r="C82">
+        <v>67.009367999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>32.569792</v>
+      </c>
+      <c r="C83">
+        <v>67.009257000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>32.56991</v>
+      </c>
+      <c r="C84">
+        <v>67.009187999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>32.570000999999998</v>
+      </c>
+      <c r="C85">
+        <v>67.009084999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>32.570005999999999</v>
+      </c>
+      <c r="C86">
+        <v>67.008950999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>32.570022000000002</v>
+      </c>
+      <c r="C87">
+        <v>67.008730999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>32.570393000000003</v>
+      </c>
+      <c r="C88">
+        <v>67.008671000000007</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>32.570695999999998</v>
+      </c>
+      <c r="C89">
+        <v>67.008615000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>32.571013999999998</v>
+      </c>
+      <c r="C90">
+        <v>67.008509000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>32.571238999999998</v>
+      </c>
+      <c r="C91">
+        <v>67.008455999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>32.571137999999998</v>
+      </c>
+      <c r="C92">
+        <v>67.008328000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>32.571154</v>
+      </c>
+      <c r="C93">
+        <v>67.008212999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>32.571154</v>
+      </c>
+      <c r="C94">
+        <v>67.008162999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>32.571196999999998</v>
+      </c>
+      <c r="C95">
+        <v>67.008064000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>32.571233999999997</v>
+      </c>
+      <c r="C96">
+        <v>67.007971999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>32.571368</v>
+      </c>
+      <c r="C97">
+        <v>67.007833000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>32.571410999999998</v>
+      </c>
+      <c r="C98">
+        <v>67.007723999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>32.571513000000003</v>
+      </c>
+      <c r="C99">
+        <v>67.007472000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6499,8 +6316,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A69" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7642,7 +7459,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C41"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7679,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="8">
-        <f>D2/1.9</f>
+        <f t="shared" ref="E2:E41" si="0">D2/1.9</f>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -7697,7 +7514,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="8">
-        <f>D3/1.9</f>
+        <f t="shared" si="0"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -7715,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="8">
-        <f>D4/1.9</f>
+        <f t="shared" si="0"/>
         <v>1.0526315789473684</v>
       </c>
     </row>
@@ -7733,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <f>D5/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7751,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <f>D6/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7769,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="8">
-        <f>D7/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -7787,7 +7604,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="8">
-        <f>D8/1.9</f>
+        <f t="shared" si="0"/>
         <v>1.5789473684210527</v>
       </c>
     </row>
@@ -7805,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="8">
-        <f>D9/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7823,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="8">
-        <f>D10/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -7841,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="8">
-        <f>D11/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -7859,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <f>D12/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7877,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="8">
-        <f>D13/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -7895,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <f>D14/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7913,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <f>D15/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7931,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="8">
-        <f>D16/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -7949,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="8">
-        <f>D17/1.9</f>
+        <f t="shared" si="0"/>
         <v>1.0526315789473684</v>
       </c>
     </row>
@@ -7967,7 +7784,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="8">
-        <f>D18/1.9</f>
+        <f t="shared" si="0"/>
         <v>1.0526315789473684</v>
       </c>
     </row>
@@ -7985,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="8">
-        <f>D19/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -8003,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="8">
-        <f>D20/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -8021,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="8">
-        <f>D21/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -8039,7 +7856,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="8">
-        <f>D22/1.9</f>
+        <f t="shared" si="0"/>
         <v>1.0526315789473684</v>
       </c>
     </row>
@@ -8057,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <f>D23/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8075,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f>D24/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8093,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <f>D25/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8111,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="8">
-        <f>D26/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -8129,7 +7946,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="8">
-        <f>D27/1.9</f>
+        <f t="shared" si="0"/>
         <v>1.0526315789473684</v>
       </c>
     </row>
@@ -8147,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="8">
-        <f>D28/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8165,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="8">
-        <f>D29/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -8183,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <f>D30/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8201,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="8">
-        <f>D31/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -8219,7 +8036,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="8">
-        <f>D32/1.9</f>
+        <f t="shared" si="0"/>
         <v>1.0526315789473684</v>
       </c>
     </row>
@@ -8237,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="8">
-        <f>D33/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8255,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <f>D34/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8273,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="8">
-        <f>D35/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8291,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="8">
-        <f>D36/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -8309,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <f>D37/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8327,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="8">
-        <f>D38/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -8345,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="8">
-        <f>D39/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -8363,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="8">
-        <f>D40/1.9</f>
+        <f t="shared" si="0"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -8381,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="8">
-        <f>D41/1.9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang 2022 full.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang 2022 full.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
     <sheet name="Coordinates" sheetId="2" r:id="rId2"/>
-    <sheet name="Size structure" sheetId="4" r:id="rId3"/>
-    <sheet name="Outline" sheetId="5" r:id="rId4"/>
-    <sheet name="Лист1" sheetId="6" r:id="rId5"/>
-    <sheet name="Coordinats_South" sheetId="7" r:id="rId6"/>
-    <sheet name="767" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="Лист2" sheetId="8" r:id="rId3"/>
+    <sheet name="Size structure" sheetId="4" r:id="rId4"/>
+    <sheet name="Outline" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId6"/>
+    <sheet name="Coordinats_South" sheetId="7" r:id="rId7"/>
+    <sheet name="767" sheetId="3" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
   <si>
     <t>Crang19</t>
   </si>
@@ -306,6 +307,9 @@
   </si>
   <si>
     <t>Crang 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lon </t>
   </si>
 </sst>
 </file>
@@ -427,558 +431,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Outline!$A$2:$A$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>32.578868999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.573613000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.572926000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.572493999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.571865000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.571238000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.570754999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.570191999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32.569648999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32.569279000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32.569026999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32.569094</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32.569170999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.569223000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32.569003000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.568922000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32.568919999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.568846999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32.569051000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32.569353999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32.569678000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>32.569737000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.570033000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32.569938</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32.569974000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32.569960999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32.569927999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32.569997999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32.569997000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32.569997000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32.569923000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32.569926000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32.569989999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32.569968000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>32.569965000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>32.569910999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>32.569935000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>32.569965000000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32.570118999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.570124</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>32.570300000000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>32.570827999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>32.571153000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>32.571606000000003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.572310000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>32.573086000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Outline!$B$2:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>67.007221000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67.009069999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.009156000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67.009214999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.009352000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67.009400999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67.009433999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67.009461999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.009573000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67.009687999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.009533000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67.009322999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>67.009169</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>67.008887999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>67.008793999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>67.008622000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>67.008533</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67.008317000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>67.008207999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>67.008082999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>67.007921999999994</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>67.007705000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>67.007446000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>67.007284999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>67.007182</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>67.007143999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>67.007071999999994</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>67.006966000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>67.006865000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.006808000000007</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>67.006945999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67.006878999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>67.006778999999995</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67.006725000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>67.006936999999994</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>67.006803000000005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>67.006685000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>67.006626999999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>67.006338</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>67.006096999999997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>67.005799999999994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>67.005639000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>67.005488</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>67.005398</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>67.005325999999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>67.005133000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="206458200"/>
-        <c:axId val="206458592"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="206458200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="206458592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="206458592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="206458200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1220,11 +672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206451536"/>
-        <c:axId val="206453104"/>
+        <c:axId val="179447216"/>
+        <c:axId val="179450408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206451536"/>
+        <c:axId val="179447216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,12 +733,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206453104"/>
+        <c:crossAx val="179450408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206453104"/>
+        <c:axId val="179450408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +795,343 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206451536"/>
+        <c:crossAx val="179447216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Outline!$A$89:$A$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>34.911000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.383000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.311999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.386000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.351999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.281999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Outline!$B$89:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9899999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9699999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0600000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4099999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="205058400"/>
+        <c:axId val="205061144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="205058400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205061144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="205061144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205058400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2508,20 +2296,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2538,20 +2326,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4930,7 +4718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
@@ -5775,6 +5563,109 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.505</v>
+      </c>
+      <c r="B2">
+        <v>34.911000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.499</v>
+      </c>
+      <c r="B3">
+        <v>34.383000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.498</v>
+      </c>
+      <c r="B4">
+        <v>34.344000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.497</v>
+      </c>
+      <c r="B5">
+        <v>34.311999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="B6">
+        <v>34.270000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.51</v>
+      </c>
+      <c r="B7">
+        <v>34.386000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.505</v>
+      </c>
+      <c r="B8">
+        <v>34.351999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="B9">
+        <v>34.281999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="B10">
+        <v>34.259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.441</v>
+      </c>
+      <c r="B11">
+        <v>34.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -6311,13 +6202,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A69" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7294,6 +7185,86 @@
         <v>63</v>
       </c>
     </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>34.911000000000001</v>
+      </c>
+      <c r="B89">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>34.383000000000003</v>
+      </c>
+      <c r="B90">
+        <v>4.9899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>34.344000000000001</v>
+      </c>
+      <c r="B91">
+        <v>4.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>34.311999999999998</v>
+      </c>
+      <c r="B92">
+        <v>4.9699999999999996E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="B93">
+        <v>5.0600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>34.386000000000003</v>
+      </c>
+      <c r="B94">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>34.351999999999997</v>
+      </c>
+      <c r="B95">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>34.281999999999996</v>
+      </c>
+      <c r="B96">
+        <v>4.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>34.259</v>
+      </c>
+      <c r="B97">
+        <v>4.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>34.25</v>
+      </c>
+      <c r="B98">
+        <v>4.4099999999999999E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7301,7 +7272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -7454,7 +7425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -8219,7 +8190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
